--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/14_Batman_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/14_Batman_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93C1B889-2B51-4777-BACF-F8D5D78CD3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E850706-B63F-44B1-B755-B2518A5DA570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{1E771D97-B6BC-4DC3-9314-CC029B9E7C42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{478D34D9-0CEC-4A23-8374-BC69F5B2139A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -929,14 +929,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{2F236CBF-80A7-48DF-907D-580984E2F5CA}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{54B7B479-CE89-4D47-BAB2-F08282FD676E}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{8044B302-92F7-459A-8DC1-D02C83ADE9DD}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{5054C969-A9C7-424B-A34F-464B3F3C9663}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{102BBE6B-F6D7-4C75-A39C-A8CBF3A6F010}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{760DD472-131F-404D-A78D-0DFA51C8AB31}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{6187804E-FBC4-4DD2-B27D-FDC9A6C6E5F7}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{CF09E6D6-0B05-43B2-A31A-0184A392A456}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5BD84CD3-1CE0-4E00-837F-DE2E99993B27}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4C3C3108-2287-4082-911B-664B750DD413}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{753E15C2-65F3-46C0-A5AA-C7885ACEA7D6}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{FD7EB1E9-22DD-451B-B00B-41071F24EB74}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{1CED4E66-47BD-421A-B5FF-7FC11E9CAC42}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{FB4AFEA3-8646-4C94-958B-FC0B566C35F6}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{FCE4FBA9-D7CE-4803-BC48-6F1B1BD17163}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{6A12CA7B-DB02-4DC1-91ED-0D93574DA84D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1306,7 +1306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5FEE89-858A-4346-A259-827553E49550}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E64FEDC-77B5-4A89-8FDA-04BC98273F14}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2591,18 +2591,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{855E26BC-C9E7-4300-A3EE-6A214B80D083}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{43B6209D-46F6-4BBD-8430-77909E37D1C7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01077F69-FA48-4312-B674-3EE146A05C7E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{42F293BB-332D-43B3-BCFB-FDC262A8F2B8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86A8FE67-2E98-4B1A-8387-409BAF22A401}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DCB5B6DC-7233-4D31-AF7F-84B0AD5F256F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D2EDD8DC-A265-4373-AB16-62399BCA9A88}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43355BC1-DDDC-469A-82B8-4E7FFB8AB452}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76040835-5923-4720-B079-7DA53F245E0C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{27DA14A1-1B4D-40A2-B194-E31F1431DADB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1CD442A-7660-49F6-B78C-39EB148FB089}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D93446B-6E90-4FDB-A64F-472D3D1218A3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC03C101-11EC-4C91-A166-14A8869371F5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F9170B0E-C776-4766-B511-C6EBB6E547CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A2C122A-FFFF-4DDE-81F4-4D9D72DDFE33}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{54A65CD9-7DAD-4BBC-B892-426ECBE694C0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8DE012F-8F3B-4A48-A784-D17853D8D3AA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2AE5607C-D6DB-4228-9D44-74B82F35AD2B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52E71AFD-670F-4CD5-9065-AE3FF0B25262}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03541452-59F2-4A91-8B53-B357194FEBA1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CEADA17D-3021-4855-88BA-9E7C7AE5F803}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8F9B1F7C-ED46-4BD5-BE6E-72D9D28E407C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC04D667-4DCD-4D0B-8261-E84942C76AAE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0795BAC7-6584-4CDC-BB1E-D8E10E725184}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2615,7 +2615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3458027-09C6-41DD-BC78-F7B8375FE6F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F8A76B-6427-4184-8ED6-7F83E565B6D8}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3880,18 +3880,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69D211C9-5054-4C0E-8B79-F686CB4F9976}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9976E002-28C5-49AC-B95B-A1111F9EEB1E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3719AC2A-7B59-4F12-B241-8D34EE93E99E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E97AB881-A92A-4F17-9C35-2DF067C81809}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{23E92DB3-64A7-4793-80A3-665837FEBBE7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{17252D86-6F36-4B55-B977-715EC70734E2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5EB080A-DCED-414F-AE51-56309F022ACF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27F0DD70-6055-4FEA-83A2-6F20DABF4D0B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F1E1DB30-5770-4A07-B9B8-955F795DC01D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F042D5B-05BF-46C4-ADDD-4E0AE551717C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71367BF6-45E7-4E98-92AE-A5242AC1FEE4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9DA9C5DD-752B-49D1-9826-D45803F513F9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95572B31-AB08-40D7-BC0E-6423A3D3181E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AC4C2A63-CEE8-44AD-B2CC-A634F6373AB8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{061687E6-8E70-49B1-8707-7F769970C478}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ADFB4985-41DC-4222-9BC2-469B53F25803}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF224EA0-6B6D-4A36-944D-4368A0BDC080}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E5574AB9-5E8E-48C9-92DF-0F5FC7FC30F8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E8931916-4C8B-497F-845C-BAC9E25DB29D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2EB7F885-F1A7-4137-A6A2-6D42787C8FCE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E842DEA9-962C-4CCE-BE4E-9C77500B301B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5BE8E244-9664-413C-9EC7-4EFE092CEA5B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{030AAF32-F9FD-418E-9075-8FE7D10BDEFD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02C56B17-D06F-4FA5-A60E-15B47E56A23D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3904,7 +3904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB7C64-7821-4BB9-8400-9BB00F95E798}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554A977E-B5B3-4247-8DC3-2EFEEDDBC421}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5159,17 +5159,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E794D43B-C4DA-4C67-86B0-A8EF0EEB2C65}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D3F5C946-ABC2-4C05-912B-23DEA613590B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CE92BB80-05F4-4BA3-8020-8939A75EA3A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DD4AFF32-7C02-4106-B047-6A31613E9DA7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{856E37F1-5ED7-43BC-8226-32BB0242BFB0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C8F2020-354B-4D61-9C44-A43D39077015}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{694A77A8-B13F-4E97-8DDC-3352715D5566}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7551C45F-E291-4CF1-9A5B-0FD1672BC683}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3A8AB078-E787-4812-B58F-144B48CBB0B2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED296A66-6F3A-46DF-8429-FC42DADAC99B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC4F53D1-41AF-4FEE-858E-89CA2700006C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53DFF188-EC2C-4571-A63D-591C51D421EC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0C267131-20F0-47A0-9732-5DB793F0777C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D94A3106-D1A6-42BA-A24D-9AF6297906EE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D51A2FB5-BEB7-4D17-87CF-59C7708612BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F88816DF-C350-4FD2-B980-85B2444AD4B2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89A90620-F204-44A6-B8B4-F3D9D0550D41}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8AC1DC7F-910C-41F1-883E-04DF4671776D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{14BE965A-E6C1-4858-8DEB-00383C4D7BB4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B78BF18D-945E-4C5E-8980-B0AFC999BF9D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF611D92-03FA-4001-8060-6E92061B1286}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D26A07D9-15F7-40ED-85A6-4A663B0D6FC8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5182,7 +5182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403190B1-3301-4E90-BCAF-CC0143DB8A7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EADA80-2EB0-4F52-832A-C5DC381BC294}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6422,18 +6422,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A0E258F3-88C1-45EA-9F8D-BCD82CD1C7B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF40CCA1-D1C0-42E4-87ED-838B6B4750EC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1D0B7B1B-1D0F-488C-8AAE-A64EEB36A095}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D0970E2D-104B-4F8E-A91F-0EC0D618F655}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{653C4D3E-23EF-4612-ACA8-FEECB8130B1A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{712AC015-E9D1-40FE-BA4C-B599968B0824}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{552A6ADE-5EBF-4153-8345-A0C94EF11F4D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43F8E95F-98C0-49F0-8687-8D80165B799E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56E8F6DF-EA28-41EC-8E0C-DAE2FEF1ABB9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C422D1A5-D64C-46CD-9632-528EE75F3B9B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{713FCF57-7F53-49C8-9445-02BF8258ADF8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{313732A0-7AB5-416E-A564-5F7402FA8094}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{350617B3-461D-4014-A64F-2397BA56A881}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31BCE20A-F519-425A-AED4-4EC51231982A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0F28AFA7-0FE3-4155-A7D5-02B191308F5F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{633636D1-6493-4F05-B424-D2FB634A3BB7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8E554045-7407-4D45-893A-757AAEA5767F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DFF5CFCA-FCB7-459E-90D8-A23D14B98FF5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC96D84B-FEFB-43D7-865F-B7B7F3C37BA9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A735E5F-5479-4668-A52E-D2DD4EF43B18}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B85BE1A-9FB5-44B8-941F-98F03B475FC8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73D6A3BF-2C60-4B92-B88F-E8F5C0DA2D9F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B42F50A9-C40E-4621-8ABD-53FDD08EDC76}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AAECE9AA-FA3C-4DF2-BE4A-3A5389741470}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6446,7 +6446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECF7F1E-E286-4480-B321-45E19C6813C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D68B2EE-A027-485E-A72B-A682BE4A57C2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7731,18 +7731,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C4292391-371A-49CA-A422-CC59FE5FA48E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{08A69E44-32B8-4474-B39C-34AFB580240B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FA1D39DD-7D05-4FAD-96ED-B8A6C62ED3F7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C3E76E4C-19B0-4CFD-BC62-4B9B0848AE75}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D30836C1-21B1-4976-A100-306C180D424D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5DE75FB2-0D81-408C-BA00-0531F943A8D7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E166D00-3084-4ABD-B76D-BBDB572C9AC2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D7A337B-A3B3-4593-A03E-B5B0235FF055}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E546E98B-C81B-45DA-8BD8-B2755067E874}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{90933136-56A7-4206-A750-5E47A86CD57A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0D77CF6-EA52-47BA-861B-070D3906DD95}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E6DE2249-86D8-4823-9B6F-0FEA03DBF6D3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22A45A86-F8D2-48A4-8DC9-023E9D28BE4A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C3A6D91E-DAC8-486B-BECD-9CB60ED22AB2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A3F7A2A-D866-4F4A-B69D-7440CE36D80F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4E2A77A6-57AB-42BD-8AFB-D64C31C163B2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3EFBD154-FC01-4595-AF96-FF18992EE5AF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B8B725DF-28A8-4643-9A5A-F65E2B0EA60D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC283CB9-585E-47E1-8BDF-2283F0FF3B14}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{569E30BF-CBDB-40F1-8FBD-BD158A943127}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0443609C-DB25-4FCE-B5BF-4BA1B53CB921}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8CF93A8C-1938-456D-8901-1C1D94ECE585}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{07ADD45E-7078-4676-B5B0-150F520DD270}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DEA2B0B5-67FB-4E30-BF53-FFE044C664ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7755,7 +7755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8BA2D4-4909-4724-A34D-574C845A1EC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED306AB-7C19-4964-88AF-0D931F1E1FAC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9040,18 +9040,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F57FED9B-A2E1-4FDB-A027-B5C4D849A9AA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F1589C8E-0BFA-4FED-9FD6-6EF9776CBA9D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E33D498-7FC5-4C60-B3BE-D724184018E6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CFAB9A5A-C89B-4EF9-8EBC-BC6F20B43963}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4ED2339A-43ED-4DBC-AD29-0FDBFA234BA1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{52FF1AF5-9FD0-416D-8C8D-CE9608B34130}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06B4D4D8-F1A8-49D4-9014-A318AB38BDAC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C5EEA8B-9C1A-4CDB-9234-23E5B7C9D735}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9025638-D88B-4547-BC5B-32FE841C03B8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C3C5CE31-0AF6-4A41-BA10-EB5E61938C13}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5E3397E-8384-4B46-A2FB-F0931A4F0BB8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{750B369B-6ECC-4552-BA8A-BF2BE4793C8E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B897343A-AF1F-4E78-A515-A95C3138FE70}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5B5F6E68-A3A7-4339-8F29-5949BC02994E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06881013-B7E2-42B3-B34A-C8C3A4255312}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{695690FD-0F49-4A8A-9E44-10AEFDBBD7D3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{34B8A2BC-0B0E-4C41-9955-EB3B6C62F46A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BDE9ED40-EB56-47C5-9AF2-EBF3881B9D25}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2490471C-C914-4526-B514-B5937FF6108B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{145E6C75-5E65-4189-AA54-C44382E94A81}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F0E13E38-457D-4F03-BFFF-F4ABE383EFA0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD76BBCC-E904-4357-ADAC-801108B3868F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4BB7ED95-F0CC-4310-BE34-C1913B8DAF87}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FCBC64D4-7C6F-42E3-A875-9A47FEE11611}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9064,7 +9064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE64C6B5-C1CE-4264-8DF5-C2E318DDA234}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDC3E32-161A-49B9-98E6-57453905D3E2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10345,18 +10345,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB575D42-BAFB-4DE5-8A0F-8F28084E481A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C39D34CC-7DCA-42F9-A2C9-CA2F98889AEB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1AF68781-4307-465C-87FC-BE2128131D88}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E50B40C6-F92D-433C-82D7-FC0373CBB730}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC853197-8501-457B-BACB-AE59EE08BE3D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D0E9A9A-A7DE-4C09-9FF2-4D3221862F16}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CCA67FB-29B4-4295-A586-07B67E6FF8B2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8027759A-4A18-4E3B-8FB6-4E17027C8BB0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5EE8382F-F5B0-4BCF-AC93-CD4352E4101E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4A0AAA4A-D673-4B61-9FEF-2A2F8DEC8777}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{415D34DB-213D-4DE1-B7E8-BB5C3F1089FE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D2DB946-9945-49CB-B0F1-396806E4B512}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06B29F76-EAF3-4D28-8A37-2B888E5D7930}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F0A13D09-324E-4B24-A96A-D0973B7E7347}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0993DDA-DD1A-424B-A327-14BA7DC1398F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{04B77F23-E73A-438C-9C2C-ECBEF76592A8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BB8F45BF-1E12-46D8-9657-C6FD69B37C38}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{77851137-2DAB-479B-BA49-B9596A739249}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E07D7F55-9633-4902-A267-42977F2A119D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1A574E3-7AB8-48CC-984A-27DFCB861331}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A7FC3A39-C184-4729-995B-364071C7AB32}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{595D08CE-D988-4BED-97E1-B924C19CFC3D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{672D29C1-BBF6-459B-AB64-D53C0D06B6D4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C879C9FA-A024-4F34-BA32-464CB92DB18C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10369,7 +10369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91090D72-8A2A-41D6-B06D-29A132DBBB3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2DD6BF-897C-41A9-9190-C03514F2E866}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11652,18 +11652,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F436B8EA-E5FD-40B9-8809-FED19B313D35}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BCF63629-2856-47EB-AF02-1CCB385CD438}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36F8D748-5A52-4A39-A297-B153B4DC2F1A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{66D469C7-9CA0-4A7B-B6B7-679BC468DCDE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF41AEB8-FB01-4E87-8FE2-761D38347857}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{64F314EF-B837-4A17-A49B-3830AA7F4A62}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F9C949D-5081-47D0-AEFF-47A0524DD4D5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E6B49B5-8303-47C2-99A9-02FABE548FD7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0E34D98-0AE2-40BC-9386-8282E6B0413A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BAB83096-21C9-4581-A5DA-DE0DFF540FBA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13E31CCA-407C-43B0-99D8-9286D6047508}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4066B5CD-0066-468E-B36C-ACE72D36C852}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29398D0D-EE98-4FA6-A987-AF1CC5329721}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{228CBA07-6309-4885-AEA8-9364F54E2C83}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52A7325C-28A6-4FED-8FF7-2DFE275A283F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0251A45A-B026-454A-8293-0C3EAB71EA3E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71593985-601E-462D-B6B5-7BAF7F90A7CF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{932E58E5-EF23-440B-9C7B-B846694CCAB7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B0E5BBB-CAFC-4D00-A731-2E1147179E20}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1828A43E-286E-4B0F-B260-8FB6A1A5235F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{683E5382-E4F1-45B1-8396-AFC0674C2A58}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{853087A5-7AEB-420B-9C5B-E3EEAC318570}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD463E19-D8B2-4A49-8877-99EADD40BD94}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB3A236B-5EE6-4227-8333-188EFF390389}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11676,7 +11676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD46D53E-FB9B-4DC4-8295-A980530BBE1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76E36D-956E-4CF2-9AD2-B264219AA84F}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12941,18 +12941,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2B67DFC7-1D05-41EB-A3CC-CDA56EC970E3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{79C54827-23A1-4A71-9926-4E2B9275E690}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98C27894-A97C-4A60-8CF3-D4A6B75D04D4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AF3AFDD9-F6D9-4281-A7AB-F3ACFF866507}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0985933C-6083-44BA-982F-F56D4BFD1E73}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C24D66B5-9F80-40D0-A098-B0A84FF92DFD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7AF8125-0772-49BF-BAAC-49B992228872}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5206A0AC-7A4E-4045-AA98-2BCCC823E03C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8CA52043-33E7-4158-AFA6-3797605871DD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1E9CBC53-C39F-4AD0-BB9D-ACB1E7C1969C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C342CBD2-1EB9-4CF6-B5B8-0B0EA3628E07}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C780E53B-F5FF-4569-84E4-A1B9E2F1116F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E50E446-839C-4C6B-B028-663EFA9322A4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C65ED445-78FA-4B1C-AB7C-0A586F61AFDB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F07A473F-8A02-4F38-B18F-6BEAD7D31D7F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1A9D98B9-1B65-4925-9EAB-7E6F5BEC948A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{04FDDE9E-DA16-41D2-B9DC-CD2A21ECA066}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8EC71993-246C-4F80-A73D-5BDF2F378F83}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{64A50F37-1323-4911-9E9F-F696A64F6A0B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75EB8098-A8AC-4AE9-ABD0-FB066695456E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E95E792-3558-4393-A841-75F6DBDA68AD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED6659F0-FB2A-48C6-AD04-CDCEEDB7A027}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{92D86C02-0E1A-4900-9D7A-52128299F7E7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76BF34E4-CF7D-4E06-ABE2-448FD1605B81}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12965,7 +12965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F58DEE-DD05-4C25-841D-358EA11DEA89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB9ED80-300E-402D-A908-AF76DBF730CE}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14232,18 +14232,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36C0AA5B-F31E-4CA3-822D-572C7048AAEA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D36F354D-D8D3-4F55-84E4-4F9B3C1D146A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C6044C0-D761-4841-937D-593489132212}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3F2FF5D0-8CE1-4DF4-882E-01D7441AA69B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7152DDEF-D264-4416-9D1F-1E99695BC44F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA7C928D-6910-423E-9671-573C8E3E2B15}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{959DF9F3-C3D0-49F9-A45A-2AB2321E4160}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A21E15AF-D1DD-4A81-A8C7-A71437FDE6D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9AD47565-1C2E-44AA-ACD8-C8EC9C37DF07}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7909F423-9562-46D2-8916-F525428926B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{429337ED-82E1-415D-BE6C-A58971FD51B9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B785D555-959F-472F-99B5-D205DB5F258C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11FCDC33-1ADB-4982-9906-CFBA91385BE2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{09BE3481-B8EA-43BF-AEA8-43836712FC97}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07A9760D-16A9-4895-A510-E822136CEABE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BCA01FD9-3E98-4518-AA97-18DD79C92FBD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7306CCF0-5F4F-4C35-A4C7-36542543259B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8BED8EDA-9C95-42F5-8354-5A3AFBF6B949}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4911A885-519B-42B8-AB71-6150C206ABA9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F61782D1-F071-47AE-87A8-FD99EB37D8FA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E01FECF-5AB1-4833-AE2E-BAA7CD779CC7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{06B6B10D-63D3-46DC-892E-BD7FE6FFD88E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D49890B-B1F5-448C-96EA-A1B3C185BFDA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85AF7DEF-E3F5-4D55-9987-B050D34742D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14256,7 +14256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F5337D-B050-4168-B526-7C2B2E6CF700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD295342-3859-4378-A58D-EA2AD666AAD9}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15521,18 +15521,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28FB61EC-9180-4C03-AEDA-6DE2AC218CEA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{081A8DD8-0BE7-4357-AE51-4D419394C53F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D94B42E4-F820-48DF-8A47-AB9D6027230F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BB5AC276-E215-4F9A-B45A-4B51CDBFE51C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74B5014A-7C79-40BD-B80F-7491803C9D1A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C3F89897-BE9E-414F-985F-0DEAB7C1E1FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28A32A09-6F3E-43EC-9C64-5375E3CB95EA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{23C8397B-1DC2-471A-A04F-F50CEFEDA3D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE22F202-BD8D-4D55-9DE9-F783E2FDA33D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{01064B03-F2F5-416F-99E9-180408DEB201}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C4678F5F-04F9-4CD6-98BD-9EE7A4BD4D06}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7EA98F0B-AAC2-4CBE-B1FF-A87F80FFC369}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{454AB987-26F8-4850-AF42-D9816A760400}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{87B18F36-AFF5-4C3E-89A3-4D64FFCAAC26}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4AF6AE68-B92C-4EDE-AC4E-18DBF8B1092A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C03ACE33-43C2-4F08-B72F-28F2FC82B2BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{273D431A-57CA-4F18-8EA1-77BCECF7DF0A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{048FD5FA-31A3-4F94-8423-0FDA72323341}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23F0375F-5FE0-4E37-BEC8-C071A7C8107E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B16BDF8-DC70-48AE-A220-24C891680153}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2B7A94A-0873-4515-8F78-B7A101964D95}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F64A707-D3A3-43D7-BC40-EF4785EE64AF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D998B608-AA87-4223-B4E4-ACD95B340D80}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F08AAA8-7318-41E1-9A6C-2737465F4CB5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15545,7 +15545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F2B979-47BC-492D-8968-72187C82846C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45735C2F-9143-4FC6-BD67-BFD9BBEA5824}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16810,18 +16810,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A1B0CF3-EC69-4EBA-9347-AC9D5AE9D589}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B4C0234-D332-4F5C-90D8-5E24EA495E4E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{09C8AE85-95A8-4088-A0FD-ECD3F66ACF85}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CF189C2B-B480-4DE2-B633-7F3BD448ACB1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3BED151E-74CA-4456-816B-1E52DA5677D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39A60D0F-6367-4320-8ECC-BEB2838B1CCB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D507F83E-0FB5-4C0D-B2B3-20960F58190C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87AF99BF-70E3-4731-8694-888899F7F91B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{29EBD852-91D7-43E0-82F1-5E83F07D3E8E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5910D39B-870C-4F4D-BEBE-CE014B9D6F9A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B80FA51A-C307-42BE-AF88-84D4F015E25D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDC39E3B-D97D-4D42-8E33-2D2AB72AB5B6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C552AEAC-5E86-4253-9253-8C39106BCDEF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DCE9B470-3052-456C-B299-76AC77582CA6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{066CEE01-3A53-435B-99A4-01545D778A35}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5AE66784-6116-43BF-8DE4-DD3BA9A66567}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9DC63119-84CB-4455-80F3-4EB1E6A7E802}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1A67E887-237C-44B9-A9DB-543A0B610F87}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{542F2BFF-9F34-42C5-9895-33D5136431A6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD2E97B5-7FEC-43AD-9245-E556B070ACD2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{37EDEBC4-3D10-4445-A75A-41988AD9A754}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{931B6C94-99D7-4624-B4C1-A455C26BED78}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0E7C2B5-364D-4A44-B2CC-024DDEDFC387}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7CDF852-5D2D-4A75-ABE4-8365F29023E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
